--- a/Boom/Excel/TraitDesign.xlsx
+++ b/Boom/Excel/TraitDesign.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566A1AA4-14B5-4C72-9B18-ED113B203C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED16B13E-99F0-4EED-ADEE-EF7006D5AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特质设计" sheetId="1" r:id="rId1"/>
+    <sheet name="注释" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -236,6 +237,50 @@
   </si>
   <si>
     <t>写满错字的魔法书+ 黏糊糊的巫师手套+ 虹彩的魔法书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发增幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节奏增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构筑协助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力混沌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构筑干扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑筋陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	资源吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,6 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -607,7 +653,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -868,4 +914,90 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E781F9-AE93-47FD-ADA8-66FD517AC3BA}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Boom/Excel/TraitDesign.xlsx
+++ b/Boom/Excel/TraitDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED16B13E-99F0-4EED-ADEE-EF7006D5AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB80DFCD-2071-460B-8D8E-3C4FCEF0BAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2020" yWindow="5790" windowWidth="31010" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特质设计" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -281,6 +281,38 @@
   </si>
   <si>
     <t>Res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Trait_ManaChaos_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Trait_TempoBoost_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Trait_MindTrap_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Trait_PowerSurge_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Trait_EconomicSupport_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Trait_StatusBuff_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Trait_DeckbuildingAid_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Trait_DeckDisruption_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,18 +685,18 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.9140625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="67.5" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="18.9140625" customWidth="1"/>
+    <col min="3" max="3" width="12.9140625" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="64.75" customWidth="1"/>
     <col min="6" max="6" width="53.9140625" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.9140625" customWidth="1"/>
     <col min="8" max="8" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -713,7 +745,9 @@
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H2" s="2" t="s">
         <v>39</v>
       </c>
@@ -737,7 +771,9 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
@@ -761,7 +797,9 @@
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
@@ -785,7 +823,9 @@
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
@@ -809,7 +849,9 @@
       <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
@@ -833,7 +875,9 @@
       <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>32</v>
       </c>
@@ -857,7 +901,9 @@
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>36</v>
       </c>
@@ -881,7 +927,9 @@
       <c r="F9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>44</v>
       </c>
@@ -905,7 +953,9 @@
       <c r="F10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
@@ -920,7 +970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E781F9-AE93-47FD-ADA8-66FD517AC3BA}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Boom/Excel/TraitDesign.xlsx
+++ b/Boom/Excel/TraitDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB80DFCD-2071-460B-8D8E-3C4FCEF0BAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20085AC-B72A-4DC3-A8E4-4267BFD026AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="5790" windowWidth="31010" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特质设计" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Boom/Excel/TraitDesign.xlsx
+++ b/Boom/Excel/TraitDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20085AC-B72A-4DC3-A8E4-4267BFD026AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906876D6-1A72-476D-9184-5E18ACE41E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一颗子弹伤害-6，最后一颗子弹伤害+6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>混沌三角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第三颗子弹伤害+1，第四颗子弹伤害+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“这门本不该教的课，在不稳定的魔力中竟意外成功。”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的所有子弹共振效果+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无限金币术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果你有至少两颗子弹未镶嵌宝石，则最后一颗子弹伤害+4，穿透+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蹩脚的魔术师帽子 + 尖叫陶罐 + 黏糊糊的巫师手套</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -192,14 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你所有子弹的伤害会随机波动（-3~2）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有子弹宝石类型变为共振，每颗子弹共振效果+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>尖叫猫头鹰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗开始时，敌人护盾血量减少#Blue(1~2)#。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虹彩混响陷阱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有子弹在战斗开始时，其宝石类型将统一变为随机的一种（共振/穿透/伤害）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>写满错字的魔法书+ 黏糊糊的巫师手套+ 虹彩的魔法书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,6 +281,38 @@
   </si>
   <si>
     <t>T_Trait_DeckDisruption_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变你的猫头鹰雕像效果为: 战斗开始时，敌人护盾血量减少#Blue(1~2)#。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有子弹伤害#Red(-1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你有至少两颗子弹未镶嵌宝石，则最后一颗子弹伤害#Red(+4)#，穿透#Blue(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一颗子弹伤害#Red(-6)#，最后一颗子弹伤害#Red(+6)#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你所有子弹的伤害会随机波动（#Red(-3~2)#）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的所有子弹共振效果#Yellow(+1)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三颗子弹伤害#Red(+1)#，第四颗子弹伤害#Red(+2)#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有子弹宝石类型变为共振，每颗子弹共振效果#Yellow(+1)#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +685,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -717,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -740,16 +740,16 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -763,16 +763,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -783,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -809,25 +809,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -835,25 +835,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -861,25 +861,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -887,25 +887,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -913,25 +913,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -939,25 +939,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -981,63 +981,63 @@
   <sheetData>
     <row r="1" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4"/>
     </row>
